--- a/Resources/SampleDataframe.xlsx
+++ b/Resources/SampleDataframe.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Matt\Project2Group2\Resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9FDFC7A9-5F50-4277-BAB3-E551296941A0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6785233-00B0-4784-AB80-0D4D7EF1417B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{249B7805-7A46-4004-9AAF-0F4D16364521}"/>
   </bookViews>
@@ -930,7 +930,7 @@
   <dimension ref="A1:Z10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="L14" sqref="L14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -938,7 +938,7 @@
     <col min="1" max="1" width="2" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="64.140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="24.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="31.28515625" customWidth="1"/>
     <col min="5" max="5" width="6.5703125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="32.140625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="12.85546875" bestFit="1" customWidth="1"/>
